--- a/data/trans_dic/P16B05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>50,46; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>56,36; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,29%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>57,23; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>57,45; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>54,87; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>72,56; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>70,85; 96,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>81,75; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>80,61; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,37%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>67,25; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>71,34; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>88,11; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>79,5; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>81,36; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>91,99; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>82,95; 98,06</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,53%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>54,21; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>80,46; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>78,76; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>83,25; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>95,84; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>82,14; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>93,3; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>93,59; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>60,89; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>96,7; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>86,42; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>96,86; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>97,69; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,63%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>84,57; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>85,02; 98,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>97,75; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>91,09; 99,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>90,44; 98,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>98,3; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>91,85; 99,15</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>85,68; 97,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>95,52; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>89,51; 98,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>90,59; 97,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>97,34; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>95,78; 99,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>90,69; 96,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>97,84; 99,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>95,26; 98,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1207,12 +1207,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>93,05%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>93,43; 100</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,43; 100</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>84,57; 100,0</t>
+          <t>66,99; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,02; 98,5</t>
+          <t>79,46; 97,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,75; 100</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,09; 99,03</t>
+          <t>82,23; 98,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,44; 98,95</t>
+          <t>84,87; 98,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>98,3; 100</t>
+          <t>96,39; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,85; 99,15</t>
+          <t>83,87; 98,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>87,39; 100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>88,17; 100</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90,01; 100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>82,3; 100,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>95,84; 100</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94,97; 100</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>86,68; 100,0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>96,86; 100</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>96,58; 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>93,32%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>99,09%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>95,54%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>94,78%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>99,24%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>98,04%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>94,33%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>99,19%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>97,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>85,68; 97,76</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>95,52; 100,0</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>89,51; 98,21</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>90,59; 97,75</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>97,34; 100,0</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>95,78; 99,28</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>90,69; 96,76</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>97,84; 99,75</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>95,26; 98,66</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,46; 100,0</t>
+          <t>54,67; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,36; 100,0</t>
+          <t>58,17; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,23; 100,0</t>
+          <t>56,89; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,17 +806,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,45; 100,0</t>
+          <t>63,26; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,87; 100,0</t>
+          <t>63,63; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,56; 100,0</t>
+          <t>71,36; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,17 +826,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>70,85; 96,33</t>
+          <t>71,96; 96,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,75; 100,0</t>
+          <t>84,94; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>80,61; 100,0</t>
+          <t>80,16; 100,0</t>
         </is>
       </c>
     </row>
@@ -915,37 +916,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,25; 100,0</t>
+          <t>67,78; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,34; 100,0</t>
+          <t>72,46; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,11; 100,0</t>
+          <t>87,35; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,5; 100,0</t>
+          <t>79,27; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,36; 100,0</t>
+          <t>78,36; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,99; 100,0</t>
+          <t>90,91; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,95; 98,06</t>
+          <t>81,29; 98,05</t>
         </is>
       </c>
     </row>
@@ -1015,22 +1016,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>54,21; 100,0</t>
+          <t>53,15; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,46; 100,0</t>
+          <t>80,43; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,76; 100,0</t>
+          <t>78,53; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,25; 100,0</t>
+          <t>88,1; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,17 +1046,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,14; 100,0</t>
+          <t>83,44; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,3; 100,0</t>
+          <t>93,01; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,59; 100,0</t>
+          <t>92,6; 100,0</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,89; 100,0</t>
+          <t>61,21; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1155,7 +1156,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>86,42; 100,0</t>
+          <t>85,75; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1245,12 +1246,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,99; 100,0</t>
+          <t>61,71; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,46; 97,52</t>
+          <t>80,8; 97,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,12 +1261,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,23; 98,0</t>
+          <t>82,76; 98,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>84,87; 98,19</t>
+          <t>84,61; 98,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,87; 98,23</t>
+          <t>83,99; 98,24</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1361,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>82,3; 100,0</t>
+          <t>85,79; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1375,7 +1376,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,68; 100,0</t>
+          <t>88,14; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>85,68; 97,76</t>
+          <t>84,04; 97,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>95,52; 100,0</t>
+          <t>93,79; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>89,51; 98,21</t>
+          <t>90,04; 98,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,59; 97,75</t>
+          <t>90,48; 97,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>97,34; 100,0</t>
+          <t>97,35; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>95,78; 99,28</t>
+          <t>95,7; 99,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>90,69; 96,76</t>
+          <t>90,9; 96,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,75</t>
+          <t>97,71; 99,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>95,26; 98,66</t>
+          <t>95,12; 98,65</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos tranquilizantes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1856</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2522</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2459</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9492</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3906</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8292</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11348</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6429</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10752</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>799; 1856</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1402; 2522</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1059; 2459</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6254; 11439</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2490; 3906</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6571; 8292</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7733; 13295</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4934; 6429</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8916; 10752</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11234</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14372</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10024</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9321</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14208</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14122</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20554</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28579</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24146</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7447; 13091</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12287; 14372</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6929; 10954</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6483; 10188</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10830; 15177</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12451; 14122</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16751; 22422</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25097; 29548</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20101; 25076</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8439</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19893</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17502</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24611</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39717</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33290</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33051</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59611</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50792</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6688; 8439</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17797; 19893</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13288; 19604</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19031; 26266</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35511; 40652</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28049; 35385</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27197; 34706</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>55039; 60546</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>44702; 53915</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13906</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24671</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25187</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>34539</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>53295</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>50151</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>48445</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>77967</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>75339</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8262; 15544</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20667; 25695</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20662; 26312</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>31337; 35569</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>51172; 53295</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>48067; 50151</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>42648; 51114</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>73473; 78991</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>70806; 76464</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13610</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14704</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28695</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31119</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>48145</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>64507</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>44729</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>62849</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>93202</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9486; 15498</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12850; 14704</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>26593; 28695</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>29264; 31119</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>46187; 48145</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>62379; 64507</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>39976; 46617</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>60877; 62849</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>91051; 93202</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13434</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16389</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>12322</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>34360</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>38452</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>44227</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>47794</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>54841</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>56549</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11741; 13434</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>14178; 16389</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8257; 13381</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>30130; 36372</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>36616; 38452</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>39221; 46458</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>42917; 49803</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>52862; 54841</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>51043; 59703</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12711</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19344</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>15591</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>26408</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>51004</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>48881</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>39119</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>70348</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>64471</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11109; 12711</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>17055; 19344</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>14034; 15591</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>23446; 27329</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48884; 51004</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>46425; 48881</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>35293; 40040</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>68141; 70348</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>62268; 64471</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>75190</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>111894</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>111780</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>169851</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>248728</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>263471</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>245042</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>360623</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>375251</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>67712; 78646</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>105908; 112918</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>105338; 114931</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>162135; 174510</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>243981; 250632</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>257165; 266742</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>236145; 251452</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>355239; 362610</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>366902; 380503</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>